--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Rename_Vacinas_Imuno_Soro.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/Rename_Vacinas_Imuno_Soro.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/BaseOBM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC14370-AC0E-C946-9940-E0B3C74AE4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEB724-37C5-CC49-AF08-D067A3E7D984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="880" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado da consulta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resultado da consulta'!$A$1:$O$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resultado da consulta'!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -4384,7 +4384,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>